--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T12:36:42+00:00</t>
+    <t>2023-03-22T15:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T12:55:59+00:00</t>
+    <t>2023-06-14T11:38:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -305,10 +305,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
+++ b/CodeSystem-cs-diagnosesicherung-icdo3.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:02+00:00</t>
+    <t>2023-12-13T13:28:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
